--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -43,7 +43,7 @@
     <t>instruction</t>
   </si>
   <si>
-    <t>/home/lab/Procedury/analogia/instrukcja.txt</t>
+    <t>/home/poia/Documents/Laboratorium/Procedury/Oscylacje_AR/instrukcja.txt</t>
   </si>
   <si>
     <t>training</t>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -506,21 +506,26 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
       <c r="I5" t="s"/>
       <c r="J5">
         <f>IF(OR(B5 = "instruction",AND(OR(B5 = "experiment",B5 = "training"),OR(D5 = 2, D5 = 3, D5 = 4),OR(E5 = 0, E5 = 1, E5 = 2))),1,0)</f>
@@ -529,16 +534,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -557,7 +562,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -566,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -43,7 +43,7 @@
     <t>instruction</t>
   </si>
   <si>
-    <t>/home/poia/Documents/Laboratorium/Procedury/Oscylacje_AR/instrukcja.txt</t>
+    <t>instrukcja.txt</t>
   </si>
   <si>
     <t>training</t>
